--- a/documentation/Instruction_Encodings.xlsx
+++ b/documentation/Instruction_Encodings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Library/Mobile Documents/com~apple~CloudDocs/James's Files/Education/Syracuse/Semesters/October 2021/CIS 655 - Advanced computer architecture/HW2/VLQRISC_Simulator/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400602EF-D045-D448-B175-B18D397CF699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4541205-9600-5647-910A-B5A7AD48F40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{8D9666D9-516F-FF40-B233-BE68FB4D243F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>opcode</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>GPR_NUM</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>COMP_BRANCH</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE561F5-11A4-7B43-84EF-DCBF10B4A450}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,9 +762,64 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="10"/>
     </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="O4:AG4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="R6:AG6"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>

--- a/documentation/Instruction_Encodings.xlsx
+++ b/documentation/Instruction_Encodings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Library/Mobile Documents/com~apple~CloudDocs/James's Files/Education/Syracuse/Semesters/October 2021/CIS 655 - Advanced computer architecture/HW2/VLQRISC_Simulator/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4541205-9600-5647-910A-B5A7AD48F40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B493DEC-B9AF-DB42-9FEC-03282AA3938B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{8D9666D9-516F-FF40-B233-BE68FB4D243F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>opcode</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>COMP_BRANCH</t>
+  </si>
+  <si>
+    <t>UNCOND_BRANCH</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE561F5-11A4-7B43-84EF-DCBF10B4A450}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,8 +816,73 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="10"/>
     </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="R8:AG8"/>
     <mergeCell ref="O4:AG4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:J6"/>

--- a/documentation/Instruction_Encodings.xlsx
+++ b/documentation/Instruction_Encodings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Library/Mobile Documents/com~apple~CloudDocs/James's Files/Education/Syracuse/Semesters/October 2021/CIS 655 - Advanced computer architecture/HW2/VLQRISC_Simulator/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B493DEC-B9AF-DB42-9FEC-03282AA3938B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF9BB9-46CC-674C-9249-3388B7DF9EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{8D9666D9-516F-FF40-B233-BE68FB4D243F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>opcode</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>UNCOND_BRANCH</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE561F5-11A4-7B43-84EF-DCBF10B4A450}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,10 +882,70 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="10"/>
     </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="R10:AG10"/>
     <mergeCell ref="O4:AG4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:J6"/>

--- a/documentation/Instruction_Encodings.xlsx
+++ b/documentation/Instruction_Encodings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Library/Mobile Documents/com~apple~CloudDocs/James's Files/Education/Syracuse/Semesters/October 2021/CIS 655 - Advanced computer architecture/HW2/VLQRISC_Simulator/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF9BB9-46CC-674C-9249-3388B7DF9EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6148C9F-55BF-A046-8505-DF0E54FCA510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{8D9666D9-516F-FF40-B233-BE68FB4D243F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>opcode</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>MEMORY</t>
+  </si>
+  <si>
+    <t>Address/offset</t>
+  </si>
+  <si>
+    <t>Rs1 (Raddr)</t>
+  </si>
+  <si>
+    <t>Rd (Rdata)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:J10"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,23 +903,17 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
+      <c r="K10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10">
         <v>0</v>
       </c>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -940,12 +943,13 @@
       <c r="AG10" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="R8:AG8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="R10:AG10"/>
+    <mergeCell ref="K10:N10"/>
     <mergeCell ref="O4:AG4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:J6"/>

--- a/documentation/Instruction_Encodings.xlsx
+++ b/documentation/Instruction_Encodings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Library/Mobile Documents/com~apple~CloudDocs/James's Files/Education/Syracuse/Semesters/October 2021/CIS 655 - Advanced computer architecture/HW2/VLQRISC_Simulator/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6148C9F-55BF-A046-8505-DF0E54FCA510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB777BDD-7F34-8041-B9EB-E453D8BABCA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{8D9666D9-516F-FF40-B233-BE68FB4D243F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{8D9666D9-516F-FF40-B233-BE68FB4D243F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
